--- a/data/trans_bre/P32A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.354665733366075</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-3.112732381513608</v>
+        <v>-3.112732381513609</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.6113750899134839</v>
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.250574242735249</v>
+        <v>-2.298888691217575</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.195624761931833</v>
+        <v>-5.468852133557369</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.126552085169498</v>
+        <v>-4.881120063377357</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.02152152663292</v>
+        <v>-5.578374925050422</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -688,24 +688,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8972256145605082</v>
+        <v>1.020217080047633</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.730603598966613</v>
+        <v>-1.828405267198565</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.224874791904586</v>
+        <v>1.585445261224625</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.4270286329235138</v>
+        <v>-0.1448824855730912</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>0.8892756522265415</v>
+        <v>1.875017191198448</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.07197874359455816</v>
+        <v>0.1390206749090961</v>
       </c>
     </row>
     <row r="7">
@@ -741,7 +741,7 @@
         <v>-0.6179509547679105</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.270865596147473</v>
+        <v>1.270865596147472</v>
       </c>
     </row>
     <row r="8">
@@ -752,28 +752,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.622571702811175</v>
+        <v>-1.652631049923481</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.839708158961874</v>
+        <v>-2.704612343632174</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.099053235354194</v>
+        <v>-2.194079922773502</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1357221454124575</v>
+        <v>0.0511171733498176</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7981305053731842</v>
+        <v>-0.8094474684032597</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8883583003933379</v>
+        <v>-0.8856499279610225</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0595028814144436</v>
+        <v>-0.1116141352803525</v>
       </c>
     </row>
     <row r="9">
@@ -784,28 +784,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.09473189148649371</v>
+        <v>-0.2253966933495368</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.108745018775391</v>
+        <v>0.07939137802673005</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.07770792814181761</v>
+        <v>-0.2297594730758973</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.38642825046198</v>
+        <v>3.723251902193825</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7583255661950709</v>
+        <v>0.3641852887187003</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2073096171039987</v>
+        <v>0.08741423784291295</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01624290673617419</v>
+        <v>-0.03518841213784919</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>4.258279081502232</v>
+        <v>4.727285411802503</v>
       </c>
     </row>
     <row r="10">
@@ -841,7 +841,7 @@
         <v>4.316106287103282</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2133877997466375</v>
+        <v>-0.2133877997466374</v>
       </c>
     </row>
     <row r="11">
@@ -852,24 +852,24 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8388017318882881</v>
+        <v>-0.8693551819511348</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.20113913272171</v>
+        <v>-1.327791815457719</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4936534368604706</v>
+        <v>0.4603785291481841</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.265338116377157</v>
+        <v>-2.38099303246574</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>-0.07747371468892839</v>
+        <v>-0.2690160687776912</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7759989315639838</v>
+        <v>-0.7677920038382438</v>
       </c>
     </row>
     <row r="12">
@@ -880,22 +880,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.613184832382245</v>
+        <v>1.820858784392526</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9846454752700875</v>
+        <v>1.0184519305668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.918392218611444</v>
+        <v>4.846445863330773</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.464771076395285</v>
+        <v>1.46325394724846</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.347211173532045</v>
+        <v>1.739347834378324</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         <v>-0.3262002561215953</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1842439867004293</v>
+        <v>0.1842439867004294</v>
       </c>
     </row>
     <row r="14">
@@ -942,28 +942,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.323496763425835</v>
+        <v>-1.318899267735396</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.622922987292553</v>
+        <v>-2.660935000193243</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.461238879462549</v>
+        <v>-1.63075358108942</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.7232174323353894</v>
+        <v>-0.7390286666062947</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8642097936458624</v>
+        <v>-0.8523583086392359</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6335770220196763</v>
+        <v>-0.6751747630625954</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3614995284493636</v>
+        <v>-0.3612170758757198</v>
       </c>
     </row>
     <row r="15">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.1129300352295978</v>
+        <v>-0.1442775007574596</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.7082234257456332</v>
+        <v>-0.7163932217006684</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4170870918950221</v>
+        <v>0.2930403800603019</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.70844064021181</v>
+        <v>1.679653504414706</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06748838457661596</v>
+        <v>-0.04053880773864792</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2827019526422171</v>
+        <v>-0.2349767303582997</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.289065301770542</v>
+        <v>0.2175669237733641</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.096589819756042</v>
+        <v>1.078193089551797</v>
       </c>
     </row>
     <row r="16">
